--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H2">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I2">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J2">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N2">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P2">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q2">
-        <v>1731.027983279697</v>
+        <v>52.96392818953933</v>
       </c>
       <c r="R2">
-        <v>15579.25184951727</v>
+        <v>476.675353705854</v>
       </c>
       <c r="S2">
-        <v>0.03671374964856848</v>
+        <v>0.001759224387078433</v>
       </c>
       <c r="T2">
-        <v>0.03671374964856849</v>
+        <v>0.001759224387078433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H3">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I3">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J3">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P3">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q3">
-        <v>25859.17297699201</v>
+        <v>6700.30833911981</v>
       </c>
       <c r="R3">
-        <v>232732.5567929281</v>
+        <v>60302.77505207829</v>
       </c>
       <c r="S3">
-        <v>0.548452833788136</v>
+        <v>0.2225542219780561</v>
       </c>
       <c r="T3">
-        <v>0.5484528337881361</v>
+        <v>0.2225542219780561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>100.8373843333333</v>
+        <v>26.127733</v>
       </c>
       <c r="H4">
-        <v>302.512153</v>
+        <v>78.383199</v>
       </c>
       <c r="I4">
-        <v>0.6551985585448407</v>
+        <v>0.2666992864894373</v>
       </c>
       <c r="J4">
-        <v>0.6551985585448408</v>
+        <v>0.2666992864894374</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N4">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P4">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q4">
-        <v>3301.959342125044</v>
+        <v>1276.085420987734</v>
       </c>
       <c r="R4">
-        <v>29717.6340791254</v>
+        <v>11484.76878888961</v>
       </c>
       <c r="S4">
-        <v>0.07003197510813608</v>
+        <v>0.04238584012430283</v>
       </c>
       <c r="T4">
-        <v>0.07003197510813609</v>
+        <v>0.04238584012430283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J5">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N5">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P5">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q5">
-        <v>410.4168727997467</v>
+        <v>48.4642112244631</v>
       </c>
       <c r="R5">
-        <v>3693.75185519772</v>
+        <v>436.177901020168</v>
       </c>
       <c r="S5">
-        <v>0.00870462087560812</v>
+        <v>0.001609763950692672</v>
       </c>
       <c r="T5">
-        <v>0.00870462087560812</v>
+        <v>0.001609763950692672</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J6">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P6">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q6">
         <v>6131.062587617302</v>
@@ -818,10 +818,10 @@
         <v>55179.56328855572</v>
       </c>
       <c r="S6">
-        <v>0.1300350422383181</v>
+        <v>0.2036464286455784</v>
       </c>
       <c r="T6">
-        <v>0.1300350422383181</v>
+        <v>0.2036464286455784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>71.72390799999999</v>
       </c>
       <c r="I7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700376</v>
       </c>
       <c r="J7">
-        <v>0.1553438454249564</v>
+        <v>0.2440410104700377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N7">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P7">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q7">
-        <v>782.8757480507473</v>
+        <v>1167.67157379052</v>
       </c>
       <c r="R7">
-        <v>7045.881732456727</v>
+        <v>10509.04416411468</v>
       </c>
       <c r="S7">
-        <v>0.01660418231103014</v>
+        <v>0.0387848178737666</v>
       </c>
       <c r="T7">
-        <v>0.01660418231103014</v>
+        <v>0.0387848178737666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H8">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I8">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J8">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.16653000000001</v>
+        <v>2.027115333333333</v>
       </c>
       <c r="N8">
-        <v>51.49959000000001</v>
+        <v>6.081346</v>
       </c>
       <c r="O8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418616</v>
       </c>
       <c r="P8">
-        <v>0.05603453971282792</v>
+        <v>0.006596284565418615</v>
       </c>
       <c r="Q8">
-        <v>500.5450578242335</v>
+        <v>97.1622988533942</v>
       </c>
       <c r="R8">
-        <v>4504.905520418101</v>
+        <v>874.4606896805479</v>
       </c>
       <c r="S8">
-        <v>0.01061616918865132</v>
+        <v>0.00322729622764751</v>
       </c>
       <c r="T8">
-        <v>0.01061616918865132</v>
+        <v>0.003227296227647511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H9">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I9">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J9">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643375</v>
       </c>
       <c r="P9">
-        <v>0.8370788162388805</v>
+        <v>0.8344762556643374</v>
       </c>
       <c r="Q9">
-        <v>7477.453488956049</v>
+        <v>12291.71218051813</v>
       </c>
       <c r="R9">
-        <v>67297.08140060444</v>
+        <v>110625.4096246632</v>
       </c>
       <c r="S9">
-        <v>0.1585909402124263</v>
+        <v>0.408275605040703</v>
       </c>
       <c r="T9">
-        <v>0.1585909402124263</v>
+        <v>0.408275605040703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.15819666666667</v>
+        <v>47.93131266666666</v>
       </c>
       <c r="H10">
-        <v>87.47459000000001</v>
+        <v>143.793938</v>
       </c>
       <c r="I10">
-        <v>0.1894575960302029</v>
+        <v>0.489259703040525</v>
       </c>
       <c r="J10">
-        <v>0.1894575960302029</v>
+        <v>0.4892597030405251</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.74538866666666</v>
+        <v>48.84026566666667</v>
       </c>
       <c r="N10">
-        <v>98.236166</v>
+        <v>146.520797</v>
       </c>
       <c r="O10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="P10">
-        <v>0.1068866440482915</v>
+        <v>0.158927459770244</v>
       </c>
       <c r="Q10">
-        <v>954.7964826691044</v>
+        <v>2340.978044392065</v>
       </c>
       <c r="R10">
-        <v>8593.16834402194</v>
+        <v>21068.80239952859</v>
       </c>
       <c r="S10">
-        <v>0.02025048662912531</v>
+        <v>0.07775680177217457</v>
       </c>
       <c r="T10">
-        <v>0.02025048662912531</v>
+        <v>0.07775680177217457</v>
       </c>
     </row>
   </sheetData>
